--- a/fundinfo/table_oracle2mysql.xlsx
+++ b/fundinfo/table_oracle2mysql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\craw\fundinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091113D4-5340-4186-AAEA-E93A05E810C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE7B5C-D006-4664-BD64-A5CDC6FE84F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D791FC8-E6AD-46FA-B963-E78040268505}"/>
   </bookViews>
@@ -19,8 +19,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={29E89FC0-928B-4D55-8CA4-F1979382398D}</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{29E89FC0-928B-4D55-8CA4-F1979382398D}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    1 全量  2 按天  3 按主键Id</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
   <si>
     <t>s_jdbcurl</t>
   </si>
@@ -93,26 +111,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>IkE==3rB;P6</t>
-  </si>
-  <si>
-    <t>IkE==3rB;P7</t>
-  </si>
-  <si>
-    <t>IkE==3rB;P8</t>
-  </si>
-  <si>
-    <t>IkE==3rB;P9</t>
-  </si>
-  <si>
     <t>s_tablename</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>PRODCODE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ods_pif_cpdm</t>
   </si>
   <si>
@@ -124,46 +126,75 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>jdbc:mysql://192.168.144.222:3306/crpoduct</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>jdbc:mysql://192.168.144.222:3306/ct11</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>jdbc:oracle:thin:@192.168.146.118/jydb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jydb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc:mysql://192.168.144.222:3306/jydb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>MF_FundNetValueRe</t>
-  </si>
-  <si>
-    <t>jdbc:oracle:thin:@192.168.146.118/jydb</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jydb</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc:mysql://192.168.144.222:3306/jydb</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>MF_NetValuePerformance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>MF_BenchmarkGrowthRate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>MF_FundReturnRank</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>QT_IndexQuote</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IkE==3rB;P5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync_type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodcode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync_colname</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc:mysql://192.168.144.222:3306/cproduct</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +369,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -526,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -656,6 +694,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -785,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,6 +846,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -854,6 +909,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="max max" id="{85751235-5F17-49F1-8BF1-FE115398CBDF}" userId="7f22eadd93ce7fb8" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1151,12 +1212,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I1" dT="2024-06-20T06:31:44.37" personId="{85751235-5F17-49F1-8BF1-FE115398CBDF}" id="{29E89FC0-928B-4D55-8CA4-F1979382398D}">
+    <text>1 全量  2 按天  3 按主键Id</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CA7155-0379-4248-9F02-CB48DB420E95}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CA7155-0379-4248-9F02-CB48DB420E95}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1169,11 +1238,13 @@
     <col min="6" max="6" width="40.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1196,10 +1267,16 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1214,7 +1291,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1222,8 +1299,12 @@
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1248,8 +1329,14 @@
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1274,8 +1361,14 @@
       <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1300,8 +1393,14 @@
       <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1326,8 +1425,14 @@
       <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1352,8 +1457,14 @@
       <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1378,8 +1489,14 @@
       <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1404,25 +1521,31 @@
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1430,25 +1553,29 @@
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -1456,112 +1583,142 @@
       <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>38</v>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1570,8 +1727,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1580,8 +1739,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1590,8 +1751,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1600,9 +1763,12 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/fundinfo/table_oracle2mysql.xlsx
+++ b/fundinfo/table_oracle2mysql.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\craw\fundinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE7B5C-D006-4664-BD64-A5CDC6FE84F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4283D6B6-F0D5-4319-A6B7-D83573768821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D791FC8-E6AD-46FA-B963-E78040268505}"/>
   </bookViews>
   <sheets>
     <sheet name="table_oracle2mysql" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$J$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table_oracle2mysql!$A$1:$J$36</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -37,8 +43,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B0B88769-50EF-45B9-AFFE-2CCC6985D8D2}</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B0B88769-50EF-45B9-AFFE-2CCC6985D8D2}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    1 全量  2 按天  3 按主键Id</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="73">
   <si>
     <t>s_jdbcurl</t>
   </si>
@@ -61,132 +85,266 @@
     <t>t_password</t>
   </si>
   <si>
+    <t>cactivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_tablename</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cproduct</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ods_pif_cpdm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc:mysql://192.168.144.222:3306/ct11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc:oracle:thin:@192.168.146.118/jydb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jydb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc:mysql://192.168.144.222:3306/jydb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_FundNetValueRe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_NetValuePerformance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_BenchmarkGrowthRate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_FundReturnRank</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT_IndexQuote</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IkE==3rB;P5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync_type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>prodcode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync_colname</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc:mysql://192.168.144.222:3306/cproduct</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ads_m_cabin_cust</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ads_m_cabin_open</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ads_m_cabin_asset</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ads_m_cabin_prod</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_NetValue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>secumain</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ods_pub_date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc:mysql://192.168.144.222:3306/ccommon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccommon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT_DailyQuote</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_ScaleAnalysis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc:oracle:thin:@192.168.144.192/cif</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ods_fund_tag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ods_fund_forecast</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS_FUND_TAG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_AREA_1000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_KeyStockPortfolio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>jdbc:oracle:thin:@192.168.146.164/uf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc:mysql://192.168.144.222:3306/cactivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ct11</t>
-  </si>
-  <si>
-    <t>oracle</t>
-  </si>
-  <si>
-    <t>jdbc:mysql://192.168.144.222:3306/cactivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradingday</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enddate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_BondPortifolioDetail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>root</t>
-  </si>
-  <si>
-    <t>IkE==3rB;P5</t>
-  </si>
-  <si>
-    <t>ads_m_cabin_cust</t>
-  </si>
-  <si>
-    <t>ads_m_cabin_open</t>
-  </si>
-  <si>
-    <t>ads_m_cabin_asset</t>
-  </si>
-  <si>
-    <t>ads_m_cabin_prod</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ads_m_cabin_ctbt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ads_m_cabin_trd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ads_m_cabin_crdt</t>
-  </si>
-  <si>
-    <t>cactivity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_tablename</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ods_pif_cpdm</t>
-  </si>
-  <si>
-    <t>cproduct</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ods_pif_cpdm</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc:mysql://192.168.144.222:3306/ct11</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc:oracle:thin:@192.168.146.118/jydb</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jydb</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc:mysql://192.168.144.222:3306/jydb</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MF_FundNetValueRe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MF_NetValuePerformance</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MF_BenchmarkGrowthRate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MF_FundReturnRank</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>QT_IndexQuote</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IkE==3rB;P5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sync_type</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodcode</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sync_colname</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>init_date</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc:mysql://192.168.144.222:3306/cproduct</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jydb_deleterec</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_FundArchives</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_summary_file</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial_product</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ods_product_summary_file</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_FundRankingHis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_FundMaxDrawd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_FundSharpeRatio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_FundReturnSD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_FundManagerNew</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_FMPerformanceHis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_PersonalInfo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_AssetAllocationNew</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_FundArchivesAttach</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportdate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_TrusteeOutline</t>
+  </si>
+  <si>
+    <t>MF_TrusteeOutline</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +352,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,19 +520,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -834,7 +979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,9 +987,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1220,12 +1362,21 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I1" dT="2024-06-20T06:31:44.37" personId="{85751235-5F17-49F1-8BF1-FE115398CBDF}" id="{B0B88769-50EF-45B9-AFFE-2CCC6985D8D2}">
+    <text>1 全量  2 按天  3 按主键Id</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CA7155-0379-4248-9F02-CB48DB420E95}">
-  <dimension ref="A1:J19"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1244,7 +1395,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1267,508 +1418,2982 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="1">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J36" xr:uid="{98CA7155-0379-4248-9F02-CB48DB420E95}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="jydb"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423E8D46-7AC4-46CF-A73B-2E0561E52DE6}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" activeCellId="4" sqref="E38 D12:E36 I37 I12:I35 I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J36" xr:uid="{423E8D46-7AC4-46CF-A73B-2E0561E52DE6}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="jydb"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C37CDF8-C73E-4986-93CB-25A43B5E79B0}">
+  <dimension ref="C16:R47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:I47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="16" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fundinfo/table_oracle2mysql.xlsx
+++ b/fundinfo/table_oracle2mysql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\craw\fundinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4283D6B6-F0D5-4319-A6B7-D83573768821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F54FD5-E49B-42C8-B194-770017972C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D791FC8-E6AD-46FA-B963-E78040268505}"/>
   </bookViews>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$J$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table_oracle2mysql!$A$1:$J$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table_oracle2mysql!$A$1:$J$37</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1376,7 +1376,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="J37" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J36" xr:uid="{98CA7155-0379-4248-9F02-CB48DB420E95}">
+  <autoFilter ref="A1:J37" xr:uid="{98CA7155-0379-4248-9F02-CB48DB420E95}">
     <filterColumn colId="2">
       <filters>
         <filter val="jydb"/>
@@ -2556,7 +2556,7 @@
     </filterColumn>
     <filterColumn colId="8">
       <filters>
-        <filter val="3"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
